--- a/arcitecture4.xlsx
+++ b/arcitecture4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>ADD</t>
   </si>
@@ -87,18 +87,18 @@
     <t>xx</t>
   </si>
   <si>
-    <t xml:space="preserve">bn 1000</t>
+    <t xml:space="preserve">bn 0.1000</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>sp+0-&gt;sp</t>
   </si>
   <si>
     <t>xxxx</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>sp+0-&gt;sp</t>
-  </si>
-  <si>
     <t>fr+0-&gt;q</t>
   </si>
   <si>
@@ -121,6 +121,30 @@
   </si>
   <si>
     <t>next(pc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOADSP #Y</t>
+  </si>
+  <si>
+    <t>mdr+0-&gt;sp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUSH $K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdr+0-&gt;nop, mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmp lr, sp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bz 00011</t>
+  </si>
+  <si>
+    <t>sp-1-&gt;sp</t>
+  </si>
+  <si>
+    <t>mdr+0-&gt;fr</t>
   </si>
 </sst>
 </file>
@@ -139,7 +163,6 @@
     </font>
     <font>
       <sz val="12.000000"/>
-      <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
@@ -163,11 +186,8 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -176,7 +196,9 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,7 +712,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.57421875"/>
+    <col customWidth="1" min="1" max="1" width="16.00390625"/>
     <col customWidth="1" min="4" max="4" width="8.8515625"/>
     <col customWidth="1" min="5" max="5" width="10.140625"/>
   </cols>
@@ -699,61 +721,61 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -764,16 +786,16 @@
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>0.01</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>0.01</v>
       </c>
       <c r="G2">
@@ -823,7 +845,7 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.10000000000000001</v>
       </c>
       <c r="C3">
@@ -842,53 +864,53 @@
         <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4" t="s">
@@ -897,7 +919,7 @@
       <c r="E4">
         <v>100</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
       <c r="G4">
@@ -907,7 +929,7 @@
         <v>1111</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
@@ -950,7 +972,7 @@
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0</v>
       </c>
       <c r="D5" t="s">
@@ -959,17 +981,17 @@
       <c r="E5">
         <v>0.11</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
         <v>23</v>
@@ -1012,23 +1034,23 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>0.10000000000000001</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
       <c r="G6">
         <v>0.11</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I6">
         <v>1100</v>
@@ -1074,7 +1096,7 @@
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0</v>
       </c>
       <c r="D7" t="s">
@@ -1083,7 +1105,7 @@
       <c r="E7">
         <v>101</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
       <c r="G7">
@@ -1136,7 +1158,7 @@
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0</v>
       </c>
       <c r="D8" t="s">
@@ -1145,17 +1167,17 @@
       <c r="E8">
         <v>0.11</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
@@ -1198,26 +1220,26 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
         <v>0</v>
       </c>
       <c r="H9">
         <v>1100</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -1255,63 +1277,63 @@
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
         <v>0.01</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>1111</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2">
-        <v>1</v>
-      </c>
-      <c r="S10" s="2">
-        <v>1</v>
-      </c>
-      <c r="T10" s="2">
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1322,58 +1344,58 @@
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>0.10000000000000001</v>
       </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
         <v>0.11</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>1</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2">
-        <v>1</v>
-      </c>
-      <c r="S11" s="2">
-        <v>1</v>
-      </c>
-      <c r="T11" s="2">
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1381,19 +1403,19 @@
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="4">
         <v>101</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>0</v>
       </c>
       <c r="G12">
@@ -1443,62 +1465,930 @@
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1">
         <v>0.01</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1</v>
-      </c>
-      <c r="M13" s="2">
-        <v>1</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2">
-        <v>1</v>
-      </c>
-      <c r="S13" s="2">
-        <v>1</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0</v>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" ht="15">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="4">
+        <v>101</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1010</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1010</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>111</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0.11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17">
+        <v>1111</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="15">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="4">
+        <v>101</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1010</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1010</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="15">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" ht="15">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="4">
+        <v>101</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1010</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1010</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+      <c r="R22" s="1">
+        <v>1</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>111</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0.01</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>0.01</v>
+      </c>
+      <c r="F24">
+        <v>0.01</v>
+      </c>
+      <c r="G24">
+        <v>0.01</v>
+      </c>
+      <c r="H24">
+        <v>1101</v>
+      </c>
+      <c r="I24">
+        <v>1111</v>
+      </c>
+      <c r="J24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <v>0.0011000000000000001</v>
+      </c>
+      <c r="C25">
+        <v>0.11</v>
+      </c>
+      <c r="D25">
+        <v>111</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>101</v>
+      </c>
+      <c r="F26">
+        <v>0.01</v>
+      </c>
+      <c r="G26">
+        <v>0.11</v>
+      </c>
+      <c r="H26">
+        <v>1111</v>
+      </c>
+      <c r="I26">
+        <v>1111</v>
+      </c>
+      <c r="J26">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>111</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0.11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="15">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="4">
+        <v>101</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1010</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1010</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1</v>
+      </c>
+      <c r="S28" s="1">
+        <v>1</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="15">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+      <c r="R29" s="1">
+        <v>1</v>
+      </c>
+      <c r="S29" s="1">
+        <v>1</v>
+      </c>
+      <c r="T29" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
